--- a/ValueSet-swallow-procedures-vs.xlsx
+++ b/ValueSet-swallow-procedures-vs.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -108,16 +109,25 @@
     <t>Assessment using Gugging Swallowing Screen (procedure)</t>
   </si>
   <si>
-    <t>304909008</t>
-  </si>
-  <si>
-    <t>Swallowing function test (procedure)</t>
+    <t>63913004</t>
+  </si>
+  <si>
+    <t>Tonography with water provocation (procedure)</t>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
+    <t>http://testSK.org/CodeSystem/swallow-procedures-cs</t>
   </si>
 </sst>
 </file>
@@ -437,4 +447,47 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>